--- a/samoyed/static/applicant_info.xlsx
+++ b/samoyed/static/applicant_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>구분_지역_수험번호</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>학업계획서</t>
+  </si>
+  <si>
+    <t>최종제출 여부</t>
   </si>
 </sst>
 </file>
@@ -265,11 +268,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,6 +499,7 @@
     <col customWidth="1" min="17" max="58" width="8.75"/>
     <col customWidth="1" min="59" max="70" width="17.5"/>
     <col customWidth="1" min="71" max="72" width="87.5"/>
+    <col customWidth="1" min="73" max="73" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -712,459 +719,462 @@
       <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="BU1" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11">
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12">
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13">
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14">
-      <c r="G14" s="2"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15">
-      <c r="G15" s="2"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16">
-      <c r="G16" s="2"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17">
-      <c r="G17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18">
-      <c r="G18" s="2"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19">
-      <c r="G19" s="2"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20">
-      <c r="G20" s="2"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="G21" s="2"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="G22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="G23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="G24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="G25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="G26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="G27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="G28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="G29" s="2"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="G30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="G31" s="2"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="G32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="G33" s="2"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="G34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="G35" s="2"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="G36" s="2"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="G37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="G38" s="2"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="G39" s="2"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="G40" s="2"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="G41" s="2"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="G42" s="2"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="G43" s="2"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="G44" s="2"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="G45" s="2"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="G46" s="2"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="G47" s="2"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="G48" s="2"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="G49" s="2"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="G50" s="2"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="G51" s="2"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="G52" s="2"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="G53" s="2"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="G54" s="2"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="G55" s="2"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="G56" s="2"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="G57" s="2"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="G58" s="2"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="G59" s="2"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="G60" s="2"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="G61" s="2"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="G62" s="2"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="G63" s="2"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="G64" s="2"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="G65" s="2"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="G66" s="2"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="G67" s="2"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="G68" s="2"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="G69" s="2"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="G70" s="2"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="G71" s="2"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="G72" s="2"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="G73" s="2"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="G74" s="2"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="G75" s="2"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="G76" s="2"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="G77" s="2"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="G78" s="2"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="G79" s="2"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="G80" s="2"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="G81" s="2"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="G82" s="2"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="G83" s="2"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="G84" s="2"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="G85" s="2"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="G86" s="2"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="G87" s="2"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="G88" s="2"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="G89" s="2"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="G90" s="2"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="G91" s="2"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="G92" s="2"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="G93" s="2"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="G94" s="2"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="G95" s="2"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="G96" s="2"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="G97" s="2"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="G98" s="2"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="G99" s="2"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="G100" s="2"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="G101" s="2"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="G102" s="2"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="G103" s="2"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="G104" s="2"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="G105" s="2"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="G106" s="2"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="G107" s="2"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="G108" s="2"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="G109" s="2"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="G110" s="2"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="G111" s="2"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="G112" s="2"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="G113" s="2"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="G114" s="2"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="G115" s="2"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="G116" s="2"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="G117" s="2"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="G118" s="2"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="G119" s="2"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="G120" s="2"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="G121" s="2"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="G122" s="2"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="G123" s="2"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="G124" s="2"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="G125" s="2"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="G126" s="2"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="G127" s="2"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="G128" s="2"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="G129" s="2"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="G130" s="2"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="G131" s="2"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="G132" s="2"/>
+      <c r="G132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="G133" s="2"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="G134" s="2"/>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="G135" s="2"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="G136" s="2"/>
+      <c r="G136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="G137" s="2"/>
+      <c r="G137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="G138" s="2"/>
+      <c r="G138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="G139" s="2"/>
+      <c r="G139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="G140" s="2"/>
+      <c r="G140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="G141" s="2"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="G142" s="2"/>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="G143" s="2"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="G144" s="2"/>
+      <c r="G144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="G145" s="2"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="G146" s="2"/>
+      <c r="G146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="G147" s="2"/>
+      <c r="G147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="G148" s="2"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="G149" s="2"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="G150" s="2"/>
+      <c r="G150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="G151" s="2"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="G152" s="2"/>
+      <c r="G152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1"/>
     <row r="154" ht="15.75" customHeight="1"/>
